--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1f6-Il1rl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1f6-Il1rl2.xlsx
@@ -543,10 +543,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5519996666666667</v>
+        <v>0.287107</v>
       </c>
       <c r="H2">
-        <v>1.655999</v>
+        <v>0.861321</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.572473333333333</v>
+        <v>1.345575333333333</v>
       </c>
       <c r="N2">
-        <v>4.71742</v>
+        <v>4.036726</v>
       </c>
       <c r="O2">
-        <v>0.0623955221013184</v>
+        <v>0.05720258880468643</v>
       </c>
       <c r="P2">
-        <v>0.06239552210131842</v>
+        <v>0.05720258880468642</v>
       </c>
       <c r="Q2">
-        <v>0.8680047558422221</v>
+        <v>0.3863240972273334</v>
       </c>
       <c r="R2">
-        <v>7.81204280258</v>
+        <v>3.476916875046</v>
       </c>
       <c r="S2">
-        <v>0.0623955221013184</v>
+        <v>0.05720258880468643</v>
       </c>
       <c r="T2">
-        <v>0.06239552210131842</v>
+        <v>0.05720258880468642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5519996666666667</v>
+        <v>0.287107</v>
       </c>
       <c r="H3">
-        <v>1.655999</v>
+        <v>0.861321</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>49.84550400000001</v>
       </c>
       <c r="O3">
-        <v>0.6592875441413644</v>
+        <v>0.7063377274242425</v>
       </c>
       <c r="P3">
-        <v>0.6592875441413647</v>
+        <v>0.7063377274242425</v>
       </c>
       <c r="Q3">
-        <v>9.171567197610667</v>
+        <v>4.770331038976</v>
       </c>
       <c r="R3">
-        <v>82.54410477849601</v>
+        <v>42.932979350784</v>
       </c>
       <c r="S3">
-        <v>0.6592875441413644</v>
+        <v>0.7063377274242425</v>
       </c>
       <c r="T3">
-        <v>0.6592875441413647</v>
+        <v>0.7063377274242425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5519996666666667</v>
+        <v>0.287107</v>
       </c>
       <c r="H4">
-        <v>1.655999</v>
+        <v>0.861321</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.354957666666667</v>
+        <v>0.472618</v>
       </c>
       <c r="N4">
-        <v>4.064873</v>
+        <v>1.417854</v>
       </c>
       <c r="O4">
-        <v>0.05376453084748706</v>
+        <v>0.02009175736650936</v>
       </c>
       <c r="P4">
-        <v>0.05376453084748708</v>
+        <v>0.02009175736650936</v>
       </c>
       <c r="Q4">
-        <v>0.7479361803474444</v>
+        <v>0.135691936126</v>
       </c>
       <c r="R4">
-        <v>6.731425623127</v>
+        <v>1.221227425134</v>
       </c>
       <c r="S4">
-        <v>0.05376453084748706</v>
+        <v>0.02009175736650936</v>
       </c>
       <c r="T4">
-        <v>0.05376453084748708</v>
+        <v>0.02009175736650936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5519996666666667</v>
+        <v>0.287107</v>
       </c>
       <c r="H5">
-        <v>1.655999</v>
+        <v>0.861321</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.414567333333333</v>
+        <v>1.403935</v>
       </c>
       <c r="N5">
-        <v>4.243702</v>
+        <v>4.211805</v>
       </c>
       <c r="O5">
-        <v>0.05612983408990701</v>
+        <v>0.05968355284468708</v>
       </c>
       <c r="P5">
-        <v>0.05612983408990703</v>
+        <v>0.05968355284468708</v>
       </c>
       <c r="Q5">
-        <v>0.7808406964775555</v>
+        <v>0.403079566045</v>
       </c>
       <c r="R5">
-        <v>7.027566268298</v>
+        <v>3.627716094405</v>
       </c>
       <c r="S5">
-        <v>0.05612983408990701</v>
+        <v>0.05968355284468708</v>
       </c>
       <c r="T5">
-        <v>0.05612983408990703</v>
+        <v>0.05968355284468708</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5519996666666667</v>
+        <v>0.287107</v>
       </c>
       <c r="H6">
-        <v>1.655999</v>
+        <v>0.861321</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.367415333333333</v>
+        <v>2.832734666666667</v>
       </c>
       <c r="N6">
-        <v>7.102246</v>
+        <v>8.498204000000001</v>
       </c>
       <c r="O6">
-        <v>0.09393870956200641</v>
+        <v>0.1204241429788253</v>
       </c>
       <c r="P6">
-        <v>0.09393870956200644</v>
+        <v>0.1204241429788253</v>
       </c>
       <c r="Q6">
-        <v>1.306812474861555</v>
+        <v>0.8132979519426667</v>
       </c>
       <c r="R6">
-        <v>11.761312273754</v>
+        <v>7.319681567484001</v>
       </c>
       <c r="S6">
-        <v>0.09393870956200641</v>
+        <v>0.1204241429788253</v>
       </c>
       <c r="T6">
-        <v>0.09393870956200644</v>
+        <v>0.1204241429788253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5519996666666667</v>
+        <v>0.287107</v>
       </c>
       <c r="H7">
-        <v>1.655999</v>
+        <v>0.861321</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.87712</v>
+        <v>0.8529486666666667</v>
       </c>
       <c r="N7">
-        <v>5.63136</v>
+        <v>2.558846</v>
       </c>
       <c r="O7">
-        <v>0.07448385925791649</v>
+        <v>0.03626023058104926</v>
       </c>
       <c r="P7">
-        <v>0.07448385925791652</v>
+        <v>0.03626023058104925</v>
       </c>
       <c r="Q7">
-        <v>1.036169614293333</v>
+        <v>0.2448875328406667</v>
       </c>
       <c r="R7">
-        <v>9.325526528639999</v>
+        <v>2.203987795566</v>
       </c>
       <c r="S7">
-        <v>0.07448385925791649</v>
+        <v>0.03626023058104926</v>
       </c>
       <c r="T7">
-        <v>0.07448385925791652</v>
+        <v>0.03626023058104925</v>
       </c>
     </row>
   </sheetData>
